--- a/DashboardSM/relatorio_ssas.xlsx
+++ b/DashboardSM/relatorio_ssas.xlsx
@@ -3368,7 +3368,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>05/11/2024 15:43:51</t>
+    <t>05/11/2024 16:31:45</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(174)}</t>

--- a/DashboardSM/relatorio_ssas.xlsx
+++ b/DashboardSM/relatorio_ssas.xlsx
@@ -3368,7 +3368,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>05/11/2024 16:31:45</t>
+    <t>06/11/2024 13:17:24</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(174)}</t>

--- a/DashboardSM/relatorio_ssas.xlsx
+++ b/DashboardSM/relatorio_ssas.xlsx
@@ -3368,7 +3368,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>06/11/2024 13:17:24</t>
+    <t>06/11/2024 14:37:36</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(174)}</t>

--- a/DashboardSM/relatorio_ssas.xlsx
+++ b/DashboardSM/relatorio_ssas.xlsx
@@ -3401,7 +3401,7 @@
     <t>Período Analisado</t>
   </si>
   <si>
-    <t>06/11/2024 15:07:11</t>
+    <t>06/11/2024 15:30:50</t>
   </si>
   <si>
     <t>{'PROGRAMÁVEL': np.int64(175)}</t>
